--- a/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_10_output.xlsx
+++ b/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_10_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,11 @@
           <t>path</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>num.clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -410,6 +415,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -437,6 +445,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -464,6 +475,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,6 +505,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +535,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -545,6 +565,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -572,6 +595,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -598,6 +624,9 @@
         <is>
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
+      </c>
+      <c r="F9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_10_output.xlsx
+++ b/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_10_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,11 +383,6 @@
           <t>path</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>num.clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -415,9 +410,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -445,9 +437,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,9 +464,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,9 +491,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -535,9 +518,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -565,9 +545,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -595,9 +572,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -624,9 +598,6 @@
         <is>
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
-      </c>
-      <c r="F9">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
